--- a/DateBase/orders/Dang Nguyen_2025-4-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-4-25.xlsx
@@ -695,6 +695,9 @@
       <c r="C31" t="str">
         <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
       </c>
+      <c r="F31" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -756,7 +759,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>03030102052053015551520431510102015201020152055510100</v>
+        <v>03030102052053015551520431510102015201020152055510105</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-4-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-4-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -699,9 +699,120 @@
         <v>5</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>2</v>
+      </c>
+      <c r="C33" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F33" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
+      </c>
+      <c r="F34" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>614_康乃馨绿_green_undefined_20stems</v>
+      </c>
+      <c r="F35" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F37" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>3</v>
+      </c>
+      <c r="C39" t="str">
+        <v>646_芍药莎拉_Sarah_undefined_5stems</v>
+      </c>
+      <c r="F39" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" xml:space="preserve">
+      <c r="C40" t="str" xml:space="preserve">
+        <v xml:space="preserve">386_单瓣菟葵粉 
+green_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>430_长寿果_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F41" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>643_巧克力秋英_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>564_鸡冠花_Coxcomb_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F44" t="str">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L44"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -759,7 +870,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>03030102052053015551520431510102015201020152055510105</v>
+        <v>030301020520530155515204315101020152010201520555101055101015101020105351242</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-4-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-4-25.xlsx
@@ -872,6 +872,9 @@
       <c r="G2" t="str">
         <v>030301020520530155515204315101020152010201520555101055101015101020105351242</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
